--- a/Code/Results/Cases/Case_0_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_203/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1387600087486902</v>
+        <v>0.04659781374597571</v>
       </c>
       <c r="D2">
-        <v>0.004475837605488309</v>
+        <v>0.009834848433088794</v>
       </c>
       <c r="E2">
-        <v>0.02013112818568796</v>
+        <v>0.05773277925436027</v>
       </c>
       <c r="F2">
-        <v>3.203767501385983</v>
+        <v>4.150314836542094</v>
       </c>
       <c r="G2">
-        <v>0.0008157667942791302</v>
+        <v>0.002610118246323161</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06992181118957674</v>
+        <v>0.1406294026301467</v>
       </c>
       <c r="K2">
-        <v>5.435106037441528</v>
+        <v>3.490538228583148</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9749788486780062</v>
+        <v>0.7806702261881497</v>
       </c>
       <c r="N2">
-        <v>1.400313492740167</v>
+        <v>2.589894929548251</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.119149753827628</v>
+        <v>0.04149594537187795</v>
       </c>
       <c r="D3">
-        <v>0.003614963327148502</v>
+        <v>0.009495468719300959</v>
       </c>
       <c r="E3">
-        <v>0.01949989627486648</v>
+        <v>0.05785268200842886</v>
       </c>
       <c r="F3">
-        <v>2.950426397261353</v>
+        <v>4.11450667282017</v>
       </c>
       <c r="G3">
-        <v>0.0008266459687450434</v>
+        <v>0.002616703783463927</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0672689570083449</v>
+        <v>0.1407722569376979</v>
       </c>
       <c r="K3">
-        <v>4.720980266507411</v>
+        <v>3.333939739700838</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8530331870238825</v>
+        <v>0.7556558797998534</v>
       </c>
       <c r="N3">
-        <v>1.444925683236178</v>
+        <v>2.607506828388665</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1073643486708988</v>
+        <v>0.03838468626773306</v>
       </c>
       <c r="D4">
-        <v>0.003133360124790485</v>
+        <v>0.009284429420633344</v>
       </c>
       <c r="E4">
-        <v>0.01913371720701562</v>
+        <v>0.05794211646191272</v>
       </c>
       <c r="F4">
-        <v>2.802623241108734</v>
+        <v>4.094793754291686</v>
       </c>
       <c r="G4">
-        <v>0.0008334757261142331</v>
+        <v>0.002620956130145051</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06576809765589786</v>
+        <v>0.140915603553033</v>
       </c>
       <c r="K4">
-        <v>4.292958847523551</v>
+        <v>3.240078717739152</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7800082208626478</v>
+        <v>0.7407882667116326</v>
       </c>
       <c r="N4">
-        <v>1.474564844058264</v>
+        <v>2.619094272131825</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.102616212578809</v>
+        <v>0.03712201751726241</v>
       </c>
       <c r="D5">
-        <v>0.00294702508080924</v>
+        <v>0.009197720479644289</v>
       </c>
       <c r="E5">
-        <v>0.01898957435994042</v>
+        <v>0.05798254739706721</v>
       </c>
       <c r="F5">
-        <v>2.744140652018132</v>
+        <v>4.087329433634267</v>
       </c>
       <c r="G5">
-        <v>0.0008362994746341345</v>
+        <v>0.002622741696753326</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06518615901210367</v>
+        <v>0.140987988121978</v>
       </c>
       <c r="K5">
-        <v>4.12081305645205</v>
+        <v>3.202401419148998</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7506561686500035</v>
+        <v>0.7348525089590581</v>
       </c>
       <c r="N5">
-        <v>1.487173807257044</v>
+        <v>2.624010104678611</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1018308151251404</v>
+        <v>0.03691266133093052</v>
       </c>
       <c r="D6">
-        <v>0.002916632594688551</v>
+        <v>0.009183278556889718</v>
       </c>
       <c r="E6">
-        <v>0.01896593798754775</v>
+        <v>0.05798950192104346</v>
       </c>
       <c r="F6">
-        <v>2.734529788131923</v>
+        <v>4.086124264632986</v>
       </c>
       <c r="G6">
-        <v>0.0008367708848675276</v>
+        <v>0.002623041377446754</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06509125190302001</v>
+        <v>0.1410008506918672</v>
       </c>
       <c r="K6">
-        <v>4.09235623699152</v>
+        <v>3.196179546213216</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7458052034459328</v>
+        <v>0.7338742867360324</v>
       </c>
       <c r="N6">
-        <v>1.489298637978777</v>
+        <v>2.624838063266395</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.107300105053298</v>
+        <v>0.03836763665684373</v>
       </c>
       <c r="D7">
-        <v>0.003130809303383941</v>
+        <v>0.009283262956710558</v>
       </c>
       <c r="E7">
-        <v>0.01913175306278614</v>
+        <v>0.05794264557745699</v>
       </c>
       <c r="F7">
-        <v>2.801827695236383</v>
+        <v>4.094690788263804</v>
       </c>
       <c r="G7">
-        <v>0.0008335136402116226</v>
+        <v>0.002620979997060827</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06576013242367651</v>
+        <v>0.1409165232189444</v>
       </c>
       <c r="K7">
-        <v>4.290628452030148</v>
+        <v>3.239568278777199</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7796107977759803</v>
+        <v>0.7407077181389212</v>
       </c>
       <c r="N7">
-        <v>1.474732786599574</v>
+        <v>2.619159784754508</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.131939230303189</v>
+        <v>0.04483416634549542</v>
       </c>
       <c r="D8">
-        <v>0.004168044585316721</v>
+        <v>0.009718357775813757</v>
       </c>
       <c r="E8">
-        <v>0.01990884496661227</v>
+        <v>0.05777084500856944</v>
       </c>
       <c r="F8">
-        <v>3.114679930199571</v>
+        <v>4.137494598057202</v>
       </c>
       <c r="G8">
-        <v>0.0008194886423140468</v>
+        <v>0.002612345721850848</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0689789456445169</v>
+        <v>0.1406670996843502</v>
       </c>
       <c r="K8">
-        <v>5.186481552862062</v>
+        <v>3.436064896852884</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9325104839195362</v>
+        <v>0.7719429203974784</v>
       </c>
       <c r="N8">
-        <v>1.41520758886854</v>
+        <v>2.595806521749054</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1827804009172667</v>
+        <v>0.05769215815175244</v>
       </c>
       <c r="D9">
-        <v>0.006674324946233767</v>
+        <v>0.0105523293570684</v>
       </c>
       <c r="E9">
-        <v>0.02161817272136979</v>
+        <v>0.05755904562819225</v>
       </c>
       <c r="F9">
-        <v>3.799947538544103</v>
+        <v>4.239609453873271</v>
       </c>
       <c r="G9">
-        <v>0.0007930283592296291</v>
+        <v>0.002597061681696081</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0764351706991846</v>
+        <v>0.1406204478391189</v>
       </c>
       <c r="K9">
-        <v>7.044331248567119</v>
+        <v>3.839793266425716</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.250059334068993</v>
+        <v>0.8371262636361223</v>
       </c>
       <c r="N9">
-        <v>1.318069150072148</v>
+        <v>2.556180436561078</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2224761898901022</v>
+        <v>0.06725909325761847</v>
       </c>
       <c r="D10">
-        <v>0.008969665949773997</v>
+        <v>0.01115592818048938</v>
       </c>
       <c r="E10">
-        <v>0.02301250867527749</v>
+        <v>0.05747924474451338</v>
       </c>
       <c r="F10">
-        <v>4.363798844994761</v>
+        <v>4.325920977959214</v>
       </c>
       <c r="G10">
-        <v>0.0007739876263255866</v>
+        <v>0.00258682439650639</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08281759566388303</v>
+        <v>0.1408575653514177</v>
       </c>
       <c r="K10">
-        <v>8.500305991980269</v>
+        <v>4.147973756067813</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.499069779554787</v>
+        <v>0.8874656517569974</v>
       </c>
       <c r="N10">
-        <v>1.261501355599009</v>
+        <v>2.530870802150673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2412612808752925</v>
+        <v>0.07164015517993505</v>
       </c>
       <c r="D11">
-        <v>0.01015954970609556</v>
+        <v>0.01142911740595309</v>
       </c>
       <c r="E11">
-        <v>0.02368381023326727</v>
+        <v>0.05745931165041895</v>
       </c>
       <c r="F11">
-        <v>4.637943325390353</v>
+        <v>4.367683821638224</v>
       </c>
       <c r="G11">
-        <v>0.0007653486829704992</v>
+        <v>0.002582379868972215</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08597328938201088</v>
+        <v>0.141024751308322</v>
       </c>
       <c r="K11">
-        <v>9.190417976768515</v>
+        <v>4.290761857366704</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.617093259982667</v>
+        <v>0.9109102267509712</v>
       </c>
       <c r="N11">
-        <v>1.239764607143059</v>
+        <v>2.520192091362233</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2485012602071208</v>
+        <v>0.07330352697556464</v>
       </c>
       <c r="D12">
-        <v>0.01063603756276876</v>
+        <v>0.01153241440776753</v>
       </c>
       <c r="E12">
-        <v>0.02394403395048172</v>
+        <v>0.05745410956973807</v>
       </c>
       <c r="F12">
-        <v>4.744750578840467</v>
+        <v>4.383861338874027</v>
       </c>
       <c r="G12">
-        <v>0.0007620742215426191</v>
+        <v>0.002580727186141996</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08721016666930126</v>
+        <v>0.1410966203385726</v>
       </c>
       <c r="K12">
-        <v>9.456549138367109</v>
+        <v>4.345210999434244</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.662602849170568</v>
+        <v>0.9198673222871037</v>
       </c>
       <c r="N12">
-        <v>1.23218855089101</v>
+        <v>2.516269196646121</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2469359858965419</v>
+        <v>0.07294509324147214</v>
       </c>
       <c r="D13">
-        <v>0.01053217525763372</v>
+        <v>0.01151017364776052</v>
       </c>
       <c r="E13">
-        <v>0.02388771015284519</v>
+        <v>0.05745512570495315</v>
       </c>
       <c r="F13">
-        <v>4.72160637024038</v>
+        <v>4.380361028375717</v>
       </c>
       <c r="G13">
-        <v>0.0007627796857328155</v>
+        <v>0.002581081773606174</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0869418204746637</v>
+        <v>0.1410807609028026</v>
       </c>
       <c r="K13">
-        <v>9.399005127256828</v>
+        <v>4.333467489515442</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.652762833345179</v>
+        <v>0.9179347188528624</v>
       </c>
       <c r="N13">
-        <v>1.233789608138295</v>
+        <v>2.517108671182584</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.241854244448362</v>
+        <v>0.07177691334366898</v>
       </c>
       <c r="D14">
-        <v>0.01019819943625322</v>
+        <v>0.01143761852820191</v>
       </c>
       <c r="E14">
-        <v>0.02370509400205911</v>
+        <v>0.05745883669490404</v>
       </c>
       <c r="F14">
-        <v>4.646667492875451</v>
+        <v>4.369007464021877</v>
       </c>
       <c r="G14">
-        <v>0.0007650793932379812</v>
+        <v>0.002582243294281577</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08607417302906839</v>
+        <v>0.1410304923035923</v>
       </c>
       <c r="K14">
-        <v>9.212211403197557</v>
+        <v>4.295233807404259</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.620820141867398</v>
+        <v>0.9116455416680509</v>
       </c>
       <c r="N14">
-        <v>1.239127675390321</v>
+        <v>2.519866924418324</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2387587167462613</v>
+        <v>0.07106194264858345</v>
       </c>
       <c r="D15">
-        <v>0.009997167572105781</v>
+        <v>0.01139315777379935</v>
       </c>
       <c r="E15">
-        <v>0.02359404253678754</v>
+        <v>0.05746141509766822</v>
       </c>
       <c r="F15">
-        <v>4.601170222243439</v>
+        <v>4.362100433084379</v>
       </c>
       <c r="G15">
-        <v>0.0007664874216471504</v>
+        <v>0.002582958707811983</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08554835128789051</v>
+        <v>0.1410008168969483</v>
       </c>
       <c r="K15">
-        <v>9.098446410350618</v>
+        <v>4.271864006648229</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.601365053611374</v>
+        <v>0.9078035695211071</v>
       </c>
       <c r="N15">
-        <v>1.242485360983977</v>
+        <v>2.521572204940739</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.221264961428588</v>
+        <v>0.06697338027699118</v>
       </c>
       <c r="D16">
-        <v>0.008895237129245004</v>
+        <v>0.01113805056375838</v>
       </c>
       <c r="E16">
-        <v>0.02296943894647185</v>
+        <v>0.05748087614072972</v>
       </c>
       <c r="F16">
-        <v>4.346275228555868</v>
+        <v>4.323242262499605</v>
       </c>
       <c r="G16">
-        <v>0.0007745521411333671</v>
+        <v>0.002587119116092153</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0826168983564628</v>
+        <v>0.140847835498711</v>
       </c>
       <c r="K16">
-        <v>8.455830305696225</v>
+        <v>4.138694881884135</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.491463129967599</v>
+        <v>0.8859445255370701</v>
       </c>
       <c r="N16">
-        <v>1.263008875801248</v>
+        <v>2.531585552080202</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2107338151325138</v>
+        <v>0.0644727427767009</v>
       </c>
       <c r="D17">
-        <v>0.008259779326349914</v>
+        <v>0.01098122690789083</v>
       </c>
       <c r="E17">
-        <v>0.02259620182169009</v>
+        <v>0.05749700177337402</v>
       </c>
       <c r="F17">
-        <v>4.194726001335255</v>
+        <v>4.300046587904546</v>
       </c>
       <c r="G17">
-        <v>0.0007795012270901838</v>
+        <v>0.002589725674401908</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08088686662689071</v>
+        <v>0.1407692001000029</v>
       </c>
       <c r="K17">
-        <v>8.069252291756356</v>
+        <v>4.057668297242287</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.425346075377533</v>
+        <v>0.872674830918541</v>
       </c>
       <c r="N17">
-        <v>1.276675819569121</v>
+        <v>2.537942829400635</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2047435234299968</v>
+        <v>0.06303716193053788</v>
       </c>
       <c r="D18">
-        <v>0.00790764811184097</v>
+        <v>0.01089089235875562</v>
       </c>
       <c r="E18">
-        <v>0.0223849614485605</v>
+        <v>0.0575078179580597</v>
       </c>
       <c r="F18">
-        <v>4.109188199738611</v>
+        <v>4.286940085312381</v>
       </c>
       <c r="G18">
-        <v>0.0007823503926748655</v>
+        <v>0.002591244907363935</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07991515983827213</v>
+        <v>0.1407295527738555</v>
       </c>
       <c r="K18">
-        <v>7.849462123496323</v>
+        <v>4.011307907725211</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.387754892929451</v>
+        <v>0.8650936972297529</v>
       </c>
       <c r="N18">
-        <v>1.284907244066275</v>
+        <v>2.541677887092263</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2027262039593012</v>
+        <v>0.06255156040946019</v>
       </c>
       <c r="D19">
-        <v>0.007790583387469852</v>
+        <v>0.01086028227038582</v>
       </c>
       <c r="E19">
-        <v>0.02231400992494947</v>
+        <v>0.05751174506229439</v>
       </c>
       <c r="F19">
-        <v>4.080493733703605</v>
+        <v>4.282542712727661</v>
       </c>
       <c r="G19">
-        <v>0.0007833156913052622</v>
+        <v>0.002591762736019118</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07959001319159142</v>
+        <v>0.1407170866547318</v>
       </c>
       <c r="K19">
-        <v>7.775462181169985</v>
+        <v>3.99565282045819</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.375098606142544</v>
+        <v>0.8625356332835992</v>
       </c>
       <c r="N19">
-        <v>1.287755682036874</v>
+        <v>2.542955973264341</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2118477983406706</v>
+        <v>0.06473865708939286</v>
       </c>
       <c r="D20">
-        <v>0.008326008730556111</v>
+        <v>0.0109979345627913</v>
       </c>
       <c r="E20">
-        <v>0.02263557331259136</v>
+        <v>0.05749512572552007</v>
       </c>
       <c r="F20">
-        <v>4.210686987307298</v>
+        <v>4.302491457062587</v>
       </c>
       <c r="G20">
-        <v>0.0007789741638606351</v>
+        <v>0.002589446132320045</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08106857598792772</v>
+        <v>0.1407769930824543</v>
       </c>
       <c r="K20">
-        <v>8.110133911677735</v>
+        <v>4.06626842948117</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.432338161257405</v>
+        <v>0.8740821034383401</v>
       </c>
       <c r="N20">
-        <v>1.275182060770646</v>
+        <v>2.537257953667975</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.243343248966994</v>
+        <v>0.07211991630089187</v>
       </c>
       <c r="D21">
-        <v>0.01029554858838466</v>
+        <v>0.01145893352818206</v>
       </c>
       <c r="E21">
-        <v>0.02375856336407445</v>
+        <v>0.05745768307340171</v>
       </c>
       <c r="F21">
-        <v>4.668593530848369</v>
+        <v>4.372332406093335</v>
       </c>
       <c r="G21">
-        <v>0.0007644040532680779</v>
+        <v>0.002581901304959782</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08632783588999615</v>
+        <v>0.141045024874316</v>
       </c>
       <c r="K21">
-        <v>9.266939817343086</v>
+        <v>4.306453655287214</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.630179134587806</v>
+        <v>0.9134906711687876</v>
       </c>
       <c r="N21">
-        <v>1.237541258555453</v>
+        <v>2.519053470401914</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2646776511123505</v>
+        <v>0.07696949070854942</v>
       </c>
       <c r="D22">
-        <v>0.011736845654859</v>
+        <v>0.01175934839876192</v>
       </c>
       <c r="E22">
-        <v>0.02452798696113767</v>
+        <v>0.05744688388530861</v>
       </c>
       <c r="F22">
-        <v>4.985592375502875</v>
+        <v>4.420094029197571</v>
       </c>
       <c r="G22">
-        <v>0.0007548598771240708</v>
+        <v>0.00257714721699153</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09001254556346794</v>
+        <v>0.1412701037753834</v>
       </c>
       <c r="K22">
-        <v>10.05144648767208</v>
+        <v>4.465636617821872</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.76432018907262</v>
+        <v>0.9397081383332448</v>
       </c>
       <c r="N22">
-        <v>1.216808495369762</v>
+        <v>2.507860904803451</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2532141391461664</v>
+        <v>0.07437878637600193</v>
       </c>
       <c r="D23">
-        <v>0.0109515799973039</v>
+        <v>0.01159907587886622</v>
       </c>
       <c r="E23">
-        <v>0.02411382129606565</v>
+        <v>0.05745139912432684</v>
       </c>
       <c r="F23">
-        <v>4.814608337072627</v>
+        <v>4.394407934898595</v>
       </c>
       <c r="G23">
-        <v>0.0007599581805146917</v>
+        <v>0.002579668439893103</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08802118609807508</v>
+        <v>0.1411453987455644</v>
       </c>
       <c r="K23">
-        <v>9.629830114033666</v>
+        <v>4.380473889733764</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.692232911864039</v>
+        <v>0.9256728735051496</v>
       </c>
       <c r="N23">
-        <v>1.227489401078827</v>
+        <v>2.513769780448428</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2113439681471476</v>
+        <v>0.0646184307980775</v>
       </c>
       <c r="D24">
-        <v>0.008296025655008421</v>
+        <v>0.01099038157850174</v>
       </c>
       <c r="E24">
-        <v>0.02261776311294383</v>
+        <v>0.0574959690728214</v>
       </c>
       <c r="F24">
-        <v>4.203466106916721</v>
+        <v>4.301385418692291</v>
       </c>
       <c r="G24">
-        <v>0.0007792124365708542</v>
+        <v>0.002589572448655476</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08098635423121436</v>
+        <v>0.1407734525551092</v>
       </c>
       <c r="K24">
-        <v>8.091643731934539</v>
+        <v>4.062379615885902</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.429175739594086</v>
+        <v>0.8734457267342464</v>
       </c>
       <c r="N24">
-        <v>1.275856229745997</v>
+        <v>2.537567336326816</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1686802376095216</v>
+        <v>0.05419351799686467</v>
       </c>
       <c r="D25">
-        <v>0.0059303426596653</v>
+        <v>0.01032851113790301</v>
       </c>
       <c r="E25">
-        <v>0.02113349727651403</v>
+        <v>0.05760299800163082</v>
       </c>
       <c r="F25">
-        <v>3.605310310954451</v>
+        <v>4.210017605747794</v>
       </c>
       <c r="G25">
-        <v>0.0008000973202434349</v>
+        <v>0.002601021321997985</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07427598074693265</v>
+        <v>0.1405855317623548</v>
       </c>
       <c r="K25">
-        <v>6.528135917548127</v>
+        <v>3.728569102991344</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.161793558925339</v>
+        <v>0.8190662158059183</v>
       </c>
       <c r="N25">
-        <v>1.341981682748965</v>
+        <v>2.566235503680346</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_203/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04659781374597571</v>
+        <v>0.1387600087491734</v>
       </c>
       <c r="D2">
-        <v>0.009834848433088794</v>
+        <v>0.004475837605609101</v>
       </c>
       <c r="E2">
-        <v>0.05773277925436027</v>
+        <v>0.02013112818561957</v>
       </c>
       <c r="F2">
-        <v>4.150314836542094</v>
+        <v>3.203767501385983</v>
       </c>
       <c r="G2">
-        <v>0.002610118246323161</v>
+        <v>0.0008157667943414524</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1406294026301467</v>
+        <v>0.06992181118980767</v>
       </c>
       <c r="K2">
-        <v>3.490538228583148</v>
+        <v>5.435106037441528</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7806702261881497</v>
+        <v>0.9749788486780133</v>
       </c>
       <c r="N2">
-        <v>2.589894929548251</v>
+        <v>1.400313492740111</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04149594537187795</v>
+        <v>0.1191497538278838</v>
       </c>
       <c r="D3">
-        <v>0.009495468719300959</v>
+        <v>0.003614963327050802</v>
       </c>
       <c r="E3">
-        <v>0.05785268200842886</v>
+        <v>0.01949989627481141</v>
       </c>
       <c r="F3">
-        <v>4.11450667282017</v>
+        <v>2.950426397261324</v>
       </c>
       <c r="G3">
-        <v>0.002616703783463927</v>
+        <v>0.0008266459686890848</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1407722569376979</v>
+        <v>0.06726895700850832</v>
       </c>
       <c r="K3">
-        <v>3.333939739700838</v>
+        <v>4.720980266507297</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7556558797998534</v>
+        <v>0.8530331870239181</v>
       </c>
       <c r="N3">
-        <v>2.607506828388665</v>
+        <v>1.444925683236235</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03838468626773306</v>
+        <v>0.1073643486708846</v>
       </c>
       <c r="D4">
-        <v>0.009284429420633344</v>
+        <v>0.003133360124568441</v>
       </c>
       <c r="E4">
-        <v>0.05794211646191272</v>
+        <v>0.019133717206957</v>
       </c>
       <c r="F4">
-        <v>4.094793754291686</v>
+        <v>2.802623241108734</v>
       </c>
       <c r="G4">
-        <v>0.002620956130145051</v>
+        <v>0.0008334757260561675</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.140915603553033</v>
+        <v>0.06576809765603286</v>
       </c>
       <c r="K4">
-        <v>3.240078717739152</v>
+        <v>4.292958847523607</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7407882667116326</v>
+        <v>0.7800082208626549</v>
       </c>
       <c r="N4">
-        <v>2.619094272131825</v>
+        <v>1.474564844058222</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03712201751726241</v>
+        <v>0.1026162125780843</v>
       </c>
       <c r="D5">
-        <v>0.009197720479644289</v>
+        <v>0.002947025080912269</v>
       </c>
       <c r="E5">
-        <v>0.05798254739706721</v>
+        <v>0.0189895743599644</v>
       </c>
       <c r="F5">
-        <v>4.087329433634267</v>
+        <v>2.744140652018075</v>
       </c>
       <c r="G5">
-        <v>0.002622741696753326</v>
+        <v>0.0008362994746878196</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.140987988121978</v>
+        <v>0.06518615901206459</v>
       </c>
       <c r="K5">
-        <v>3.202401419148998</v>
+        <v>4.12081305645205</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7348525089590581</v>
+        <v>0.7506561686499822</v>
       </c>
       <c r="N5">
-        <v>2.624010104678611</v>
+        <v>1.487173807256937</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03691266133093052</v>
+        <v>0.1018308151253819</v>
       </c>
       <c r="D6">
-        <v>0.009183278556889718</v>
+        <v>0.002916632594345714</v>
       </c>
       <c r="E6">
-        <v>0.05798950192104346</v>
+        <v>0.01896593798754598</v>
       </c>
       <c r="F6">
-        <v>4.086124264632986</v>
+        <v>2.734529788131908</v>
       </c>
       <c r="G6">
-        <v>0.002623041377446754</v>
+        <v>0.0008367708849229362</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1410008506918672</v>
+        <v>0.0650912519030804</v>
       </c>
       <c r="K6">
-        <v>3.196179546213216</v>
+        <v>4.09235623699152</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7338742867360324</v>
+        <v>0.7458052034459399</v>
       </c>
       <c r="N6">
-        <v>2.624838063266395</v>
+        <v>1.489298637978784</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03836763665684373</v>
+        <v>0.1073001050535112</v>
       </c>
       <c r="D7">
-        <v>0.009283262956710558</v>
+        <v>0.00313080930348697</v>
       </c>
       <c r="E7">
-        <v>0.05794264557745699</v>
+        <v>0.0191317530627817</v>
       </c>
       <c r="F7">
-        <v>4.094690788263804</v>
+        <v>2.801827695236298</v>
       </c>
       <c r="G7">
-        <v>0.002620979997060827</v>
+        <v>0.0008335136403847443</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1409165232189444</v>
+        <v>0.06576013242370848</v>
       </c>
       <c r="K7">
-        <v>3.239568278777199</v>
+        <v>4.290628452030262</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7407077181389212</v>
+        <v>0.7796107977759661</v>
       </c>
       <c r="N7">
-        <v>2.619159784754508</v>
+        <v>1.474732786599546</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04483416634549542</v>
+        <v>0.13193923030299</v>
       </c>
       <c r="D8">
-        <v>0.009718357775813757</v>
+        <v>0.004168044585204811</v>
       </c>
       <c r="E8">
-        <v>0.05777084500856944</v>
+        <v>0.01990884496658563</v>
       </c>
       <c r="F8">
-        <v>4.137494598057202</v>
+        <v>3.114679930199543</v>
       </c>
       <c r="G8">
-        <v>0.002612345721850848</v>
+        <v>0.0008194886424331971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1406670996843502</v>
+        <v>0.06897894564454532</v>
       </c>
       <c r="K8">
-        <v>3.436064896852884</v>
+        <v>5.186481552862062</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7719429203974784</v>
+        <v>0.9325104839195077</v>
       </c>
       <c r="N8">
-        <v>2.595806521749054</v>
+        <v>1.41520758886854</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05769215815175244</v>
+        <v>0.1827804009167551</v>
       </c>
       <c r="D9">
-        <v>0.0105523293570684</v>
+        <v>0.006674324946521537</v>
       </c>
       <c r="E9">
-        <v>0.05755904562819225</v>
+        <v>0.02161817272141064</v>
       </c>
       <c r="F9">
-        <v>4.239609453873271</v>
+        <v>3.799947538544103</v>
       </c>
       <c r="G9">
-        <v>0.002597061681696081</v>
+        <v>0.0007930283593011494</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1406204478391189</v>
+        <v>0.07643517069919881</v>
       </c>
       <c r="K9">
-        <v>3.839793266425716</v>
+        <v>7.044331248567232</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8371262636361223</v>
+        <v>1.250059334069022</v>
       </c>
       <c r="N9">
-        <v>2.556180436561078</v>
+        <v>1.318069150072191</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06725909325761847</v>
+        <v>0.2224761898898748</v>
       </c>
       <c r="D10">
-        <v>0.01115592818048938</v>
+        <v>0.008969665949841499</v>
       </c>
       <c r="E10">
-        <v>0.05747924474451338</v>
+        <v>0.0230125086752988</v>
       </c>
       <c r="F10">
-        <v>4.325920977959214</v>
+        <v>4.36379884499479</v>
       </c>
       <c r="G10">
-        <v>0.00258682439650639</v>
+        <v>0.0007739876264365744</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1408575653514177</v>
+        <v>0.08281759566377644</v>
       </c>
       <c r="K10">
-        <v>4.147973756067813</v>
+        <v>8.500305991980326</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8874656517569974</v>
+        <v>1.499069779554787</v>
       </c>
       <c r="N10">
-        <v>2.530870802150673</v>
+        <v>1.261501355599009</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07164015517993505</v>
+        <v>0.2412612808753352</v>
       </c>
       <c r="D11">
-        <v>0.01142911740595309</v>
+        <v>0.01015954970650057</v>
       </c>
       <c r="E11">
-        <v>0.05745931165041895</v>
+        <v>0.02368381023323352</v>
       </c>
       <c r="F11">
-        <v>4.367683821638224</v>
+        <v>4.637943325390296</v>
       </c>
       <c r="G11">
-        <v>0.002582379868972215</v>
+        <v>0.0007653486829751419</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.141024751308322</v>
+        <v>0.08597328938203219</v>
       </c>
       <c r="K11">
-        <v>4.290761857366704</v>
+        <v>9.190417976768686</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9109102267509712</v>
+        <v>1.617093259982667</v>
       </c>
       <c r="N11">
-        <v>2.520192091362233</v>
+        <v>1.239764607143016</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07330352697556464</v>
+        <v>0.2485012602076608</v>
       </c>
       <c r="D12">
-        <v>0.01153241440776753</v>
+        <v>0.01063603756253428</v>
       </c>
       <c r="E12">
-        <v>0.05745410956973807</v>
+        <v>0.02394403395054745</v>
       </c>
       <c r="F12">
-        <v>4.383861338874027</v>
+        <v>4.744750578840467</v>
       </c>
       <c r="G12">
-        <v>0.002580727186141996</v>
+        <v>0.0007620742215416412</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1410966203385726</v>
+        <v>0.08721016666925152</v>
       </c>
       <c r="K12">
-        <v>4.345210999434244</v>
+        <v>9.456549138367222</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9198673222871037</v>
+        <v>1.662602849170568</v>
       </c>
       <c r="N12">
-        <v>2.516269196646121</v>
+        <v>1.23218855089101</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07294509324147214</v>
+        <v>0.2469359858963003</v>
       </c>
       <c r="D13">
-        <v>0.01151017364776052</v>
+        <v>0.01053217525745964</v>
       </c>
       <c r="E13">
-        <v>0.05745512570495315</v>
+        <v>0.02388771015290381</v>
       </c>
       <c r="F13">
-        <v>4.380361028375717</v>
+        <v>4.721606370240409</v>
       </c>
       <c r="G13">
-        <v>0.002581081773606174</v>
+        <v>0.0007627796857292339</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1410807609028026</v>
+        <v>0.08694182047462817</v>
       </c>
       <c r="K13">
-        <v>4.333467489515442</v>
+        <v>9.399005127256885</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9179347188528624</v>
+        <v>1.652762833345164</v>
       </c>
       <c r="N13">
-        <v>2.517108671182584</v>
+        <v>1.233789608138281</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07177691334366898</v>
+        <v>0.241854244448561</v>
       </c>
       <c r="D14">
-        <v>0.01143761852820191</v>
+        <v>0.01019819943601163</v>
       </c>
       <c r="E14">
-        <v>0.05745883669490404</v>
+        <v>0.02370509400205023</v>
       </c>
       <c r="F14">
-        <v>4.369007464021877</v>
+        <v>4.646667492875508</v>
       </c>
       <c r="G14">
-        <v>0.002582243294281577</v>
+        <v>0.000765079393235224</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1410304923035923</v>
+        <v>0.08607417302927445</v>
       </c>
       <c r="K14">
-        <v>4.295233807404259</v>
+        <v>9.212211403197443</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9116455416680509</v>
+        <v>1.62082014186737</v>
       </c>
       <c r="N14">
-        <v>2.519866924418324</v>
+        <v>1.239127675390364</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07106194264858345</v>
+        <v>0.238758716746247</v>
       </c>
       <c r="D15">
-        <v>0.01139315777379935</v>
+        <v>0.009997167572006305</v>
       </c>
       <c r="E15">
-        <v>0.05746141509766822</v>
+        <v>0.02359404253674136</v>
       </c>
       <c r="F15">
-        <v>4.362100433084379</v>
+        <v>4.601170222243525</v>
       </c>
       <c r="G15">
-        <v>0.002582958707811983</v>
+        <v>0.0007664874216991561</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1410008168969483</v>
+        <v>0.08554835128772709</v>
       </c>
       <c r="K15">
-        <v>4.271864006648229</v>
+        <v>9.098446410350675</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9078035695211071</v>
+        <v>1.601365053611389</v>
       </c>
       <c r="N15">
-        <v>2.521572204940739</v>
+        <v>1.242485360983878</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06697338027699118</v>
+        <v>0.2212649614288011</v>
       </c>
       <c r="D16">
-        <v>0.01113805056375838</v>
+        <v>0.008895237129035394</v>
       </c>
       <c r="E16">
-        <v>0.05748087614072972</v>
+        <v>0.02296943894648074</v>
       </c>
       <c r="F16">
-        <v>4.323242262499605</v>
+        <v>4.346275228555839</v>
       </c>
       <c r="G16">
-        <v>0.002587119116092153</v>
+        <v>0.0007745521411373639</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.140847835498711</v>
+        <v>0.08261689835624253</v>
       </c>
       <c r="K16">
-        <v>4.138694881884135</v>
+        <v>8.455830305696225</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8859445255370701</v>
+        <v>1.491463129967627</v>
       </c>
       <c r="N16">
-        <v>2.531585552080202</v>
+        <v>1.26300887580129</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0644727427767009</v>
+        <v>0.2107338151325706</v>
       </c>
       <c r="D17">
-        <v>0.01098122690789083</v>
+        <v>0.008259779325985761</v>
       </c>
       <c r="E17">
-        <v>0.05749700177337402</v>
+        <v>0.02259620182172917</v>
       </c>
       <c r="F17">
-        <v>4.300046587904546</v>
+        <v>4.194726001335255</v>
       </c>
       <c r="G17">
-        <v>0.002589725674401908</v>
+        <v>0.0007795012270904064</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1407692001000029</v>
+        <v>0.08088686662669886</v>
       </c>
       <c r="K17">
-        <v>4.057668297242287</v>
+        <v>8.069252291756527</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.872674830918541</v>
+        <v>1.425346075377533</v>
       </c>
       <c r="N17">
-        <v>2.537942829400635</v>
+        <v>1.276675819569107</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06303716193053788</v>
+        <v>0.20474352343021</v>
       </c>
       <c r="D18">
-        <v>0.01089089235875562</v>
+        <v>0.007907648111583399</v>
       </c>
       <c r="E18">
-        <v>0.0575078179580597</v>
+        <v>0.02238496144851077</v>
       </c>
       <c r="F18">
-        <v>4.286940085312381</v>
+        <v>4.109188199738639</v>
       </c>
       <c r="G18">
-        <v>0.002591244907363935</v>
+        <v>0.0007823503927430465</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1407295527738555</v>
+        <v>0.07991515983816555</v>
       </c>
       <c r="K18">
-        <v>4.011307907725211</v>
+        <v>7.849462123496494</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8650936972297529</v>
+        <v>1.387754892929465</v>
       </c>
       <c r="N18">
-        <v>2.541677887092263</v>
+        <v>1.284907244066218</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06255156040946019</v>
+        <v>0.2027262039593012</v>
       </c>
       <c r="D19">
-        <v>0.01086028227038582</v>
+        <v>0.007790583387393468</v>
       </c>
       <c r="E19">
-        <v>0.05751174506229439</v>
+        <v>0.02231400992495125</v>
       </c>
       <c r="F19">
-        <v>4.282542712727661</v>
+        <v>4.080493733703577</v>
       </c>
       <c r="G19">
-        <v>0.002591762736019118</v>
+        <v>0.0007833156913791878</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1407170866547318</v>
+        <v>0.07959001319161985</v>
       </c>
       <c r="K19">
-        <v>3.99565282045819</v>
+        <v>7.775462181170042</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8625356332835992</v>
+        <v>1.375098606142515</v>
       </c>
       <c r="N19">
-        <v>2.542955973264341</v>
+        <v>1.287755682036945</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06473865708939286</v>
+        <v>0.2118477983408837</v>
       </c>
       <c r="D20">
-        <v>0.0109979345627913</v>
+        <v>0.008326008730541901</v>
       </c>
       <c r="E20">
-        <v>0.05749512572552007</v>
+        <v>0.02263557331268906</v>
       </c>
       <c r="F20">
-        <v>4.302491457062587</v>
+        <v>4.210686987307298</v>
       </c>
       <c r="G20">
-        <v>0.002589446132320045</v>
+        <v>0.0007789741639153212</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1407769930824543</v>
+        <v>0.0810685759875156</v>
       </c>
       <c r="K20">
-        <v>4.06626842948117</v>
+        <v>8.110133911677678</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8740821034383401</v>
+        <v>1.432338161257434</v>
       </c>
       <c r="N20">
-        <v>2.537257953667975</v>
+        <v>1.275182060770632</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07211991630089187</v>
+        <v>0.2433432489672356</v>
       </c>
       <c r="D21">
-        <v>0.01145893352818206</v>
+        <v>0.01029554858822479</v>
       </c>
       <c r="E21">
-        <v>0.05745768307340171</v>
+        <v>0.02375856336406557</v>
       </c>
       <c r="F21">
-        <v>4.372332406093335</v>
+        <v>4.668593530848369</v>
       </c>
       <c r="G21">
-        <v>0.002581901304959782</v>
+        <v>0.0007644040532662896</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.141045024874316</v>
+        <v>0.08632783589009563</v>
       </c>
       <c r="K21">
-        <v>4.306453655287214</v>
+        <v>9.26693981734303</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9134906711687876</v>
+        <v>1.630179134587806</v>
       </c>
       <c r="N21">
-        <v>2.519053470401914</v>
+        <v>1.237541258555467</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07696949070854942</v>
+        <v>0.2646776511123932</v>
       </c>
       <c r="D22">
-        <v>0.01175934839876192</v>
+        <v>0.01173684565507926</v>
       </c>
       <c r="E22">
-        <v>0.05744688388530861</v>
+        <v>0.02452798696122116</v>
       </c>
       <c r="F22">
-        <v>4.420094029197571</v>
+        <v>4.985592375502875</v>
       </c>
       <c r="G22">
-        <v>0.00257714721699153</v>
+        <v>0.0007548598771799847</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1412701037753834</v>
+        <v>0.09001254556347504</v>
       </c>
       <c r="K22">
-        <v>4.465636617821872</v>
+        <v>10.05144648767208</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9397081383332448</v>
+        <v>1.76432018907262</v>
       </c>
       <c r="N22">
-        <v>2.507860904803451</v>
+        <v>1.216808495369833</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07437878637600193</v>
+        <v>0.2532141391456406</v>
       </c>
       <c r="D23">
-        <v>0.01159907587886622</v>
+        <v>0.01095157999733942</v>
       </c>
       <c r="E23">
-        <v>0.05745139912432684</v>
+        <v>0.02411382129600881</v>
       </c>
       <c r="F23">
-        <v>4.394407934898595</v>
+        <v>4.814608337072599</v>
       </c>
       <c r="G23">
-        <v>0.002579668439893103</v>
+        <v>0.0007599581805202149</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1411453987455644</v>
+        <v>0.08802118609813192</v>
       </c>
       <c r="K23">
-        <v>4.380473889733764</v>
+        <v>9.629830114033666</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9256728735051496</v>
+        <v>1.692232911863996</v>
       </c>
       <c r="N23">
-        <v>2.513769780448428</v>
+        <v>1.227489401078785</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0646184307980775</v>
+        <v>0.2113439681468208</v>
       </c>
       <c r="D24">
-        <v>0.01099038157850174</v>
+        <v>0.008296025655001316</v>
       </c>
       <c r="E24">
-        <v>0.0574959690728214</v>
+        <v>0.02261776311291364</v>
       </c>
       <c r="F24">
-        <v>4.301385418692291</v>
+        <v>4.203466106916721</v>
       </c>
       <c r="G24">
-        <v>0.002589572448655476</v>
+        <v>0.0007792124366430911</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1407734525551092</v>
+        <v>0.08098635423119305</v>
       </c>
       <c r="K24">
-        <v>4.062379615885902</v>
+        <v>8.091643731934482</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8734457267342464</v>
+        <v>1.429175739594086</v>
       </c>
       <c r="N24">
-        <v>2.537567336326816</v>
+        <v>1.275856229746054</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05419351799686467</v>
+        <v>0.1686802376095358</v>
       </c>
       <c r="D25">
-        <v>0.01032851113790301</v>
+        <v>0.00593034265979675</v>
       </c>
       <c r="E25">
-        <v>0.05760299800163082</v>
+        <v>0.02113349727651403</v>
       </c>
       <c r="F25">
-        <v>4.210017605747794</v>
+        <v>3.605310310954451</v>
       </c>
       <c r="G25">
-        <v>0.002601021321997985</v>
+        <v>0.0008000973202432224</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1405855317623548</v>
+        <v>0.07427598074686514</v>
       </c>
       <c r="K25">
-        <v>3.728569102991344</v>
+        <v>6.52813591754807</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8190662158059183</v>
+        <v>1.161793558925353</v>
       </c>
       <c r="N25">
-        <v>2.566235503680346</v>
+        <v>1.341981682748965</v>
       </c>
       <c r="O25">
         <v>0</v>
